--- a/biology/Médecine/Artère_glutéale_supérieure/Artère_glutéale_supérieure.xlsx
+++ b/biology/Médecine/Artère_glutéale_supérieure/Artère_glutéale_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_glut%C3%A9ale_sup%C3%A9rieure</t>
+          <t>Artère_glutéale_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère glutéale supérieure (Arteria Glutea Superior) ou artère fessière est une branche terminale du tronc postérieur de l'artère iliaque interne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_glut%C3%A9ale_sup%C3%A9rieure</t>
+          <t>Artère_glutéale_supérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle nait de la face arrière de l'artère iliaque interne, dans le pelvis, au niveau de la grande échancrure sciatique
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_glut%C3%A9ale_sup%C3%A9rieure</t>
+          <t>Artère_glutéale_supérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se dirige en dehors vers la grande échancrure sciatique qu'elle traverse au niveau de l'espace sus-pyramidal, accompagnée du nerf glutéal supérieur, après s'être divisée en ses deux branches terminales.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_glut%C3%A9ale_sup%C3%A9rieure</t>
+          <t>Artère_glutéale_supérieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elle se termine par: 
 une branche antérieure ou profonde qui, accompagnée du nerf glutéal supérieur, va circuler entre les muscles petit glutéal et moyen glutéal et qu'elle va vasculariser.
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_glut%C3%A9ale_sup%C3%A9rieure</t>
+          <t>Artère_glutéale_supérieure</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vascularise les muscles:
 grand glutéal
